--- a/local/data/qPCR/linear_mixture_curves.xlsx
+++ b/local/data/qPCR/linear_mixture_curves.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkinney/Dropbox/21_risdiplam/manuscript/v14/fig6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkinney/github/22_drugs/local/data/qPCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1263AFF4-AC38-A44C-AE5A-DF21FD735C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE068A9-7076-5942-A30E-AF004B73ABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27380" yWindow="3260" windowWidth="28800" windowHeight="16340" xr2:uid="{A466E84F-D39D-43DB-8800-B15EB202B7EA}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27180" xr2:uid="{A466E84F-D39D-43DB-8800-B15EB202B7EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="R_Ai7" sheetId="6" r:id="rId1"/>
-    <sheet name="B_Ai7" sheetId="7" r:id="rId2"/>
-    <sheet name="R_B" sheetId="2" r:id="rId3"/>
-    <sheet name="R_Ai6" sheetId="3" r:id="rId4"/>
-    <sheet name="B_Ai6" sheetId="4" r:id="rId5"/>
-    <sheet name="Ai6_Ai7" sheetId="5" r:id="rId6"/>
-    <sheet name="all" sheetId="1" r:id="rId7"/>
+    <sheet name="R_B" sheetId="2" r:id="rId1"/>
+    <sheet name="R_Ai6" sheetId="3" r:id="rId2"/>
+    <sheet name="B_Ai6" sheetId="4" r:id="rId3"/>
+    <sheet name="R_Ai7" sheetId="6" r:id="rId4"/>
+    <sheet name="R_Ai7_v2" sheetId="8" r:id="rId5"/>
+    <sheet name="B_Ai7" sheetId="7" r:id="rId6"/>
+    <sheet name="B_Ai7_v2" sheetId="10" r:id="rId7"/>
+    <sheet name="Ai6_Ai7" sheetId="5" r:id="rId8"/>
+    <sheet name="REC_i20" sheetId="9" r:id="rId9"/>
+    <sheet name="all" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
   <si>
     <t>R</t>
   </si>
@@ -93,6 +96,20 @@
   <si>
     <t>Branaplam</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deltaCt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>i20</t>
   </si>
 </sst>
 </file>
@@ -6498,460 +6515,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C88DD18-3939-8446-A55A-161DA59B26EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A2DA10-1EC2-2146-B9E5-736ED6F2FB42}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5.0234217499999971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5.0109652499999982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>4.7829155000000014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5.0416437499999986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4.6565797499999988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4.5509675000000058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>12.5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4.326720500000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>12.5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4.3733934999999988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>4.3345787499999986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>4.4195192500000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3.9523434999999978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3.9812832499999971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3.537252500000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3.4691834999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224ECC7-65C0-DB4D-89B5-B1FE443C42D0}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>4.1642498970031738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4.2067909240722656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>4.4339785575866699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4.3441257476806641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4.7589845657348633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4.6968145370483398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>12.5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4.5858039855957031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>12.5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4.623291015625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>4.6853985786437988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>4.7262082099914551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4.5525875091552734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4.5216293334960938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4.5888890000000018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>4.6556607500000027</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A2DA10-1EC2-2146-B9E5-736ED6F2FB42}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -7172,7 +6739,2328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020459-087A-44B8-AB3E-F8ED227C86A9}">
+  <dimension ref="A1:U66"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5.4219069480895996</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>5.0234217499999971</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>5.1064792500000067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>5.2175693511962891</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>5.0109652499999982</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>5.2435672499999946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>4.6724867820739746</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4.7829155000000014</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>6.1861927499999965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>4.7411484718322754</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>5.0416437499999986</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>6.1737357499999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>4.5848331451416016</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>4.6565797499999988</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>6.1515897499999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4.4638218879699707</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>4.5509675000000058</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>6.1674840000000017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4.4057497978210449</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>12.5</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4.326720500000004</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>25</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>6.1141392500000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>4.633507251739502</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>12.5</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>4.3733934999999988</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>25</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>5.9620212500000029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>4.5389604568481445</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>4.3345787499999986</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>5.777797249999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>4.4352307319641113</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>4.4195192500000005</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>5.7034554999999969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>4.3253769874572754</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>3.9523434999999978</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>5.2092952500000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>4.6080403327941895</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>3.9812832499999971</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>40</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>5.3903222500000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>3.537252500000001</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>50</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>4.3807605000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>3.4691834999999998</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>50</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>4.3552507499999962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>4.1642498970031738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>4.2067909240722656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4.6080403327941895</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>4.4339785575866699</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>5.5975067500000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4.3253769874572754</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>4.3441257476806641</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>5.5736370000000015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>4.4352307319641113</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>4.7589845657348633</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>5.367931500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4.5389604568481445</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>4.6968145370483398</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>20</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>5.5882074999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4.633507251739502</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>12.5</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>4.5858039855957031</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>5.4623999999999988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4.4057497978210449</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>12.5</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>4.623291015625</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>25</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>5.3600382499999952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>4.4638218879699707</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>4.6853985786437988</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>30</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>5.3663812499999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4.5848331451416016</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>15</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>4.7262082099914551</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>30</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>5.3384619999999963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4.7411484718322754</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>20</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>4.5525875091552734</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>40</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>4.955448999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4.6724867820739746</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>4.5216293334960938</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>40</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>4.82675375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>5.2175693511962891</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>4.5888890000000018</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>50</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>4.1185950000000027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>5.4219069480895996</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>4.6556607500000027</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>50</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>4.3028922500000029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>3.4691834999999998</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>4.6556607500000027</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>25</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>3.4691834999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3.537252500000001</v>
+      </c>
+      <c r="H38">
+        <v>25</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>4.5888890000000018</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>25</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>3.537252500000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3.9812832499999971</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>4.5216293334960938</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>20</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>5.2335084999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3.9523434999999978</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>4.5525875091552734</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>20</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>5.3097445000000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>4.4195192500000005</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>4.7262082099914551</v>
+      </c>
+      <c r="R41">
+        <v>20</v>
+      </c>
+      <c r="S41">
+        <v>15</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>5.0726329999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>4.3345787499999986</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>4.6853985786437988</v>
+      </c>
+      <c r="R42">
+        <v>20</v>
+      </c>
+      <c r="S42">
+        <v>15</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>5.1414162500000025</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>12.5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>4.3733934999999988</v>
+      </c>
+      <c r="H43">
+        <v>12.5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>4.623291015625</v>
+      </c>
+      <c r="R43">
+        <v>25</v>
+      </c>
+      <c r="S43">
+        <v>12.5</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>5.3847152499999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>12.5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>4.326720500000004</v>
+      </c>
+      <c r="H44">
+        <v>12.5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4.5858039855957031</v>
+      </c>
+      <c r="R44">
+        <v>25</v>
+      </c>
+      <c r="S44">
+        <v>12.5</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>4.9829374999999985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>4.5509675000000058</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>4.6968145370483398</v>
+      </c>
+      <c r="R45">
+        <v>30</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>5.0621240000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>4.6565797499999988</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>4.7589845657348633</v>
+      </c>
+      <c r="R46">
+        <v>30</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>5.2398334999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>5.0416437499999986</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>4.3441257476806641</v>
+      </c>
+      <c r="R47">
+        <v>40</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>4.9880185000000026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4.7829155000000014</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>4.4339785575866699</v>
+      </c>
+      <c r="R48">
+        <v>40</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>4.6647529999999975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>5.0109652499999982</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="R49">
+        <v>50</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <v>4.2852847499999989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5.0234217499999971</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="R50">
+        <v>50</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>4.2122205000000008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>4.3552507499999962</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>4.3028922500000029</v>
+      </c>
+      <c r="M53">
+        <v>50</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>4.2122205000000008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>4.3807605000000009</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>4.1185950000000027</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>4.2852847499999989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5.3903222500000005</v>
+      </c>
+      <c r="H55">
+        <v>40</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>4.82675375</v>
+      </c>
+      <c r="M55">
+        <v>40</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>4.6647529999999975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>5.2092952500000003</v>
+      </c>
+      <c r="H56">
+        <v>40</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>4.955448999999998</v>
+      </c>
+      <c r="M56">
+        <v>40</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>4.9880185000000026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>5.7034554999999969</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>5.3384619999999963</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>5.2398334999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>5.777797249999999</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>5.3663812499999999</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>5.0621240000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>5.9620212500000029</v>
+      </c>
+      <c r="H59">
+        <v>25</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>5.3600382499999952</v>
+      </c>
+      <c r="M59">
+        <v>25</v>
+      </c>
+      <c r="N59">
+        <v>12.5</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>4.9829374999999985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>6.1141392500000009</v>
+      </c>
+      <c r="H60">
+        <v>25</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>5.4623999999999988</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>12.5</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>5.3847152499999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>6.1674840000000017</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>5.5882074999999993</v>
+      </c>
+      <c r="M61">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>15</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>5.1414162500000025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>6.1515897499999994</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>5.367931500000001</v>
+      </c>
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>15</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>5.0726329999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>6.1737357499999987</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>5.5736370000000015</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+      <c r="N63">
+        <v>20</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>5.3097445000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>6.1861927499999965</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>5.5975067500000009</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>20</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>5.2335084999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>5.2435672499999946</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>25</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>3.537252500000001</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>5.1064792500000067</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>25</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>3.4691834999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X21:AB34">
+    <sortCondition descending="1" ref="X21:X34"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF00D8-0156-054E-9E35-89A0BD726629}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7397,7 +9285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8043B9A-131C-A944-B4DC-A4B0D517D114}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7620,12 +9508,912 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C88DD18-3939-8446-A55A-161DA59B26EE}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5.0234217499999971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5.0109652499999982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4.7829155000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5.0416437499999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4.6565797499999988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4.5509675000000058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>12.5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4.326720500000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>12.5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4.3733934999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4.3345787499999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4.4195192500000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3.9523434999999978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3.9812832499999971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3.537252500000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3.4691834999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DD189-6911-EA43-9C3E-2E9131A4839B}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6.684541000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7.0523489999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6.8950949999999978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6.9871227499999975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6.9916367499999978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6.7934599999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12.5</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>6.7711777500000032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12.5</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>6.7352825000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>7.1792219999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>7.1703474999999983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6.6594572500000027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>6.982443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5.9918257499999967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5.8979267499999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224ECC7-65C0-DB4D-89B5-B1FE443C42D0}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4.1642498970031738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4.2067909240722656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4.4339785575866699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4.3441257476806641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4.7589845657348633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4.6968145370483398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>12.5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4.5858039855957031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>12.5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4.623291015625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4.6853985786437988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4.7262082099914551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4.5525875091552734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4.5216293334960938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4.5888890000000018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4.6556607500000027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F3F82D-C8E9-3044-A07A-CC4C47819A1C}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6.1387207500000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6.0869405000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6.7786777499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6.7064822500000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7.0287654999999987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6.9707594999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7.1410339999999977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>6.8970052499999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6.9922632500000041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6.9474560000000025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>7.0021137499999959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>7.6195700000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5.9918257499999967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5.8979267499999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F570467-B21B-584D-A19B-317D681D8C31}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7845,2323 +10633,227 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020459-087A-44B8-AB3E-F8ED227C86A9}">
-  <dimension ref="A1:U66"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E5834D-4D27-E944-8281-0E404CC9C073}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2.0290944999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1.9389222499999974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3.3923477500000025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3.3501164999999951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3.6944215000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3.6149595000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12.5</v>
+      </c>
+      <c r="B8">
+        <v>12.5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4.3640090000000029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12.5</v>
+      </c>
+      <c r="B9">
+        <v>12.5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4.2409802500000033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4.2309912499999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4.6275287499999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4.3917312499999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4.3350849999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3.0172647500000025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>5.4219069480895996</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>5.0234217499999971</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>5.1064792500000067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>5.2175693511962891</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>5.0109652499999982</v>
-      </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>5.2435672499999946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>4.6724867820739746</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>4.7829155000000014</v>
-      </c>
-      <c r="R6">
-        <v>8</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>6.1861927499999965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>4.7411484718322754</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>5.0416437499999986</v>
-      </c>
-      <c r="R7">
-        <v>8</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>6.1737357499999987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>4.5848331451416016</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>4.6565797499999988</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>6.1515897499999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>4.4638218879699707</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>4.5509675000000058</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <v>20</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>6.1674840000000017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>4.4057497978210449</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>12.5</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>4.326720500000004</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="S10">
+      <c r="B15">
         <v>25</v>
       </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>6.1141392500000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>4.633507251739502</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>12.5</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>4.3733934999999988</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>25</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>5.9620212500000029</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>4.5389604568481445</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>15</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>4.3345787499999986</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>30</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>5.777797249999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>4.4352307319641113</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>15</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>4.4195192500000005</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>30</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>5.7034554999999969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>4.3253769874572754</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>20</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>3.9523434999999978</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>40</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>5.2092952500000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>4.6080403327941895</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>20</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>3.9812832499999971</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>40</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>5.3903222500000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>25</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>3.537252500000001</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>50</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>4.3807605000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>25</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>3.4691834999999998</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>4.3552507499999962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="M21">
-        <v>10</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>4.1642498970031738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="R22">
-        <v>10</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>4.2067909240722656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4.6080403327941895</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>4.4339785575866699</v>
-      </c>
-      <c r="R23">
-        <v>8</v>
-      </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>5.5975067500000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>4.3253769874572754</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24">
-        <v>4.3441257476806641</v>
-      </c>
-      <c r="R24">
-        <v>8</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>5.5736370000000015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>4.4352307319641113</v>
-      </c>
-      <c r="M25">
-        <v>6</v>
-      </c>
-      <c r="N25">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>4.7589845657348633</v>
-      </c>
-      <c r="R25">
-        <v>6</v>
-      </c>
-      <c r="S25">
-        <v>20</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>5.367931500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>4.5389604568481445</v>
-      </c>
-      <c r="M26">
-        <v>6</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>4.6968145370483398</v>
-      </c>
-      <c r="R26">
-        <v>6</v>
-      </c>
-      <c r="S26">
-        <v>20</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>5.5882074999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>4.633507251739502</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>12.5</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>4.5858039855957031</v>
-      </c>
-      <c r="R27">
-        <v>5</v>
-      </c>
-      <c r="S27">
-        <v>25</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>5.4623999999999988</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>4.4057497978210449</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="N28">
-        <v>12.5</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>4.623291015625</v>
-      </c>
-      <c r="R28">
-        <v>5</v>
-      </c>
-      <c r="S28">
-        <v>25</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>5.3600382499999952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>4.4638218879699707</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>15</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>4.6853985786437988</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29">
-        <v>30</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>5.3663812499999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>4.5848331451416016</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>15</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>4.7262082099914551</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30">
-        <v>30</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>5.3384619999999963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>4.7411484718322754</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <v>20</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>4.5525875091552734</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>40</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>4.955448999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4.6724867820739746</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>20</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>4.5216293334960938</v>
-      </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>40</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>4.82675375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>5.2175693511962891</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>25</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>4.5888890000000018</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>50</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>4.1185950000000027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>5.4219069480895996</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>25</v>
-      </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
-      <c r="P34">
-        <v>4.6556607500000027</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>50</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
-      <c r="U34">
-        <v>4.3028922500000029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" t="s">
-        <v>2</v>
-      </c>
-      <c r="R36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S36" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" t="s">
-        <v>7</v>
-      </c>
-      <c r="U36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C37">
-        <v>25</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>3.4691834999999998</v>
-      </c>
-      <c r="H37">
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>4.6556607500000027</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>25</v>
-      </c>
-      <c r="T37">
-        <v>2</v>
-      </c>
-      <c r="U37">
-        <v>3.4691834999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C38">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>3.537252500000001</v>
-      </c>
-      <c r="H38">
-        <v>25</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>4.5888890000000018</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>25</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>3.537252500000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C39">
-        <v>20</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>3.9812832499999971</v>
-      </c>
-      <c r="H39">
-        <v>20</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>4.5216293334960938</v>
-      </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
-      <c r="S39">
-        <v>20</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>5.2335084999999992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>3.9523434999999978</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>4.5525875091552734</v>
-      </c>
-      <c r="R40">
-        <v>10</v>
-      </c>
-      <c r="S40">
-        <v>20</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40">
-        <v>5.3097445000000008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>4.4195192500000005</v>
-      </c>
-      <c r="H41">
-        <v>15</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>4.7262082099914551</v>
-      </c>
-      <c r="R41">
-        <v>20</v>
-      </c>
-      <c r="S41">
-        <v>15</v>
-      </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>5.0726329999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>4.3345787499999986</v>
-      </c>
-      <c r="H42">
-        <v>15</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>4.6853985786437988</v>
-      </c>
-      <c r="R42">
-        <v>20</v>
-      </c>
-      <c r="S42">
-        <v>15</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42">
-        <v>5.1414162500000025</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C43">
-        <v>12.5</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>4.3733934999999988</v>
-      </c>
-      <c r="H43">
-        <v>12.5</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43">
-        <v>4.623291015625</v>
-      </c>
-      <c r="R43">
-        <v>25</v>
-      </c>
-      <c r="S43">
-        <v>12.5</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>5.3847152499999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C44">
-        <v>12.5</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>4.326720500000004</v>
-      </c>
-      <c r="H44">
-        <v>12.5</v>
-      </c>
-      <c r="I44">
-        <v>5</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>4.5858039855957031</v>
-      </c>
-      <c r="R44">
-        <v>25</v>
-      </c>
-      <c r="S44">
-        <v>12.5</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>4.9829374999999985</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>4.5509675000000058</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>6</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>4.6968145370483398</v>
-      </c>
-      <c r="R45">
-        <v>30</v>
-      </c>
-      <c r="S45">
-        <v>10</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>5.0621240000000007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>4.6565797499999988</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>6</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>4.7589845657348633</v>
-      </c>
-      <c r="R46">
-        <v>30</v>
-      </c>
-      <c r="S46">
-        <v>10</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>5.2398334999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>5.0416437499999986</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>8</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
-        <v>4.3441257476806641</v>
-      </c>
-      <c r="R47">
-        <v>40</v>
-      </c>
-      <c r="S47">
-        <v>5</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
-      <c r="U47">
-        <v>4.9880185000000026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>4.7829155000000014</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>4.4339785575866699</v>
-      </c>
-      <c r="R48">
-        <v>40</v>
-      </c>
-      <c r="S48">
-        <v>5</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <v>4.6647529999999975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>5.0109652499999982</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>10</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="R49">
-        <v>50</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
-      <c r="U49">
-        <v>4.2852847499999989</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>5.0234217499999971</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>10</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="R50">
-        <v>50</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50">
-        <v>4.2122205000000008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>4.3552507499999962</v>
-      </c>
-      <c r="H53">
-        <v>50</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53">
-        <v>4.3028922500000029</v>
-      </c>
-      <c r="M53">
-        <v>50</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>4.2122205000000008</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>4.3807605000000009</v>
-      </c>
-      <c r="H54">
-        <v>50</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>4.1185950000000027</v>
-      </c>
-      <c r="M54">
-        <v>50</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>2</v>
-      </c>
-      <c r="P54">
-        <v>4.2852847499999989</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C55">
-        <v>40</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>5.3903222500000005</v>
-      </c>
-      <c r="H55">
-        <v>40</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
-      </c>
-      <c r="K55">
-        <v>4.82675375</v>
-      </c>
-      <c r="M55">
-        <v>40</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>4.6647529999999975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C56">
-        <v>40</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>5.2092952500000003</v>
-      </c>
-      <c r="H56">
-        <v>40</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>4.955448999999998</v>
-      </c>
-      <c r="M56">
-        <v>40</v>
-      </c>
-      <c r="N56">
-        <v>5</v>
-      </c>
-      <c r="O56">
-        <v>2</v>
-      </c>
-      <c r="P56">
-        <v>4.9880185000000026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C57">
-        <v>30</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>5.7034554999999969</v>
-      </c>
-      <c r="H57">
-        <v>30</v>
-      </c>
-      <c r="I57">
-        <v>4</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>5.3384619999999963</v>
-      </c>
-      <c r="M57">
-        <v>30</v>
-      </c>
-      <c r="N57">
-        <v>10</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>5.2398334999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C58">
-        <v>30</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58">
-        <v>5.777797249999999</v>
-      </c>
-      <c r="H58">
-        <v>30</v>
-      </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>5.3663812499999999</v>
-      </c>
-      <c r="M58">
-        <v>30</v>
-      </c>
-      <c r="N58">
-        <v>10</v>
-      </c>
-      <c r="O58">
-        <v>2</v>
-      </c>
-      <c r="P58">
-        <v>5.0621240000000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C59">
-        <v>25</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>5.9620212500000029</v>
-      </c>
-      <c r="H59">
-        <v>25</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
-      </c>
-      <c r="K59">
-        <v>5.3600382499999952</v>
-      </c>
-      <c r="M59">
-        <v>25</v>
-      </c>
-      <c r="N59">
-        <v>12.5</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>4.9829374999999985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C60">
-        <v>25</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>6.1141392500000009</v>
-      </c>
-      <c r="H60">
-        <v>25</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>5.4623999999999988</v>
-      </c>
-      <c r="M60">
-        <v>25</v>
-      </c>
-      <c r="N60">
-        <v>12.5</v>
-      </c>
-      <c r="O60">
-        <v>2</v>
-      </c>
-      <c r="P60">
-        <v>5.3847152499999993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>6.1674840000000017</v>
-      </c>
-      <c r="H61">
-        <v>20</v>
-      </c>
-      <c r="I61">
-        <v>6</v>
-      </c>
-      <c r="J61">
-        <v>2</v>
-      </c>
-      <c r="K61">
-        <v>5.5882074999999993</v>
-      </c>
-      <c r="M61">
-        <v>20</v>
-      </c>
-      <c r="N61">
-        <v>15</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>5.1414162500000025</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C62">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62">
-        <v>6.1515897499999994</v>
-      </c>
-      <c r="H62">
-        <v>20</v>
-      </c>
-      <c r="I62">
-        <v>6</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>5.367931500000001</v>
-      </c>
-      <c r="M62">
-        <v>20</v>
-      </c>
-      <c r="N62">
-        <v>15</v>
-      </c>
-      <c r="O62">
-        <v>2</v>
-      </c>
-      <c r="P62">
-        <v>5.0726329999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>6.1737357499999987</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63">
-        <v>8</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63">
-        <v>5.5736370000000015</v>
-      </c>
-      <c r="M63">
-        <v>10</v>
-      </c>
-      <c r="N63">
-        <v>20</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>5.3097445000000008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C64">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>8</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>6.1861927499999965</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>8</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>5.5975067500000009</v>
-      </c>
-      <c r="M64">
-        <v>10</v>
-      </c>
-      <c r="N64">
-        <v>20</v>
-      </c>
-      <c r="O64">
-        <v>2</v>
-      </c>
-      <c r="P64">
-        <v>5.2335084999999992</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>5.2435672499999946</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>10</v>
-      </c>
-      <c r="J65">
-        <v>2</v>
-      </c>
-      <c r="K65">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>25</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>3.537252500000001</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>5.1064792500000067</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>10</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>25</v>
-      </c>
-      <c r="O66">
-        <v>2</v>
-      </c>
-      <c r="P66">
-        <v>3.4691834999999998</v>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2.9728037500000042</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X21:AB34">
-    <sortCondition descending="1" ref="X21:X34"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/local/data/qPCR/linear_mixture_curves.xlsx
+++ b/local/data/qPCR/linear_mixture_curves.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkinney/github/22_drugs/local/data/qPCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE068A9-7076-5942-A30E-AF004B73ABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B193E3F-57F2-0444-AFE2-8F5BE0525577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27180" xr2:uid="{A466E84F-D39D-43DB-8800-B15EB202B7EA}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27180" activeTab="6" xr2:uid="{A466E84F-D39D-43DB-8800-B15EB202B7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="R_B" sheetId="2" r:id="rId1"/>
     <sheet name="R_Ai6" sheetId="3" r:id="rId2"/>
     <sheet name="B_Ai6" sheetId="4" r:id="rId3"/>
-    <sheet name="R_Ai7" sheetId="6" r:id="rId4"/>
-    <sheet name="R_Ai7_v2" sheetId="8" r:id="rId5"/>
-    <sheet name="B_Ai7" sheetId="7" r:id="rId6"/>
-    <sheet name="B_Ai7_v2" sheetId="10" r:id="rId7"/>
-    <sheet name="Ai6_Ai7" sheetId="5" r:id="rId8"/>
-    <sheet name="REC_i20" sheetId="9" r:id="rId9"/>
-    <sheet name="all" sheetId="1" r:id="rId10"/>
+    <sheet name="R_Ai7_v2" sheetId="8" r:id="rId4"/>
+    <sheet name="B_Ai7_v2" sheetId="10" r:id="rId5"/>
+    <sheet name="Ai6_Ai7" sheetId="5" r:id="rId6"/>
+    <sheet name="REC_i20" sheetId="9" r:id="rId7"/>
+    <sheet name="all" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>R</t>
   </si>
@@ -6518,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A2DA10-1EC2-2146-B9E5-736ED6F2FB42}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -6736,2327 +6733,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020459-087A-44B8-AB3E-F8ED227C86A9}">
-  <dimension ref="A1:U66"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>5.4219069480895996</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>5.0234217499999971</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>5.1064792500000067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>5.2175693511962891</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>5.0109652499999982</v>
-      </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>5.2435672499999946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>4.6724867820739746</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>4.7829155000000014</v>
-      </c>
-      <c r="R6">
-        <v>8</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>6.1861927499999965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>4.7411484718322754</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>5.0416437499999986</v>
-      </c>
-      <c r="R7">
-        <v>8</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>6.1737357499999987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>4.5848331451416016</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>4.6565797499999988</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>6.1515897499999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>4.4638218879699707</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>4.5509675000000058</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <v>20</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>6.1674840000000017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>4.4057497978210449</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>12.5</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>4.326720500000004</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="S10">
-        <v>25</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>6.1141392500000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>4.633507251739502</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>12.5</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>4.3733934999999988</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>25</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>5.9620212500000029</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>4.5389604568481445</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>15</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>4.3345787499999986</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>30</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>5.777797249999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>4.4352307319641113</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>15</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>4.4195192500000005</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>30</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>5.7034554999999969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>4.3253769874572754</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>20</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>3.9523434999999978</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>40</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>5.2092952500000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>4.6080403327941895</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>20</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>3.9812832499999971</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>40</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>5.3903222500000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>25</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>3.537252500000001</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>50</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>4.3807605000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>25</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>3.4691834999999998</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>4.3552507499999962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="M21">
-        <v>10</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>4.1642498970031738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="R22">
-        <v>10</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>4.2067909240722656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4.6080403327941895</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>4.4339785575866699</v>
-      </c>
-      <c r="R23">
-        <v>8</v>
-      </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>5.5975067500000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>4.3253769874572754</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24">
-        <v>4.3441257476806641</v>
-      </c>
-      <c r="R24">
-        <v>8</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>5.5736370000000015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>4.4352307319641113</v>
-      </c>
-      <c r="M25">
-        <v>6</v>
-      </c>
-      <c r="N25">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>4.7589845657348633</v>
-      </c>
-      <c r="R25">
-        <v>6</v>
-      </c>
-      <c r="S25">
-        <v>20</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>5.367931500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>4.5389604568481445</v>
-      </c>
-      <c r="M26">
-        <v>6</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>4.6968145370483398</v>
-      </c>
-      <c r="R26">
-        <v>6</v>
-      </c>
-      <c r="S26">
-        <v>20</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>5.5882074999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>4.633507251739502</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>12.5</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>4.5858039855957031</v>
-      </c>
-      <c r="R27">
-        <v>5</v>
-      </c>
-      <c r="S27">
-        <v>25</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>5.4623999999999988</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>4.4057497978210449</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="N28">
-        <v>12.5</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>4.623291015625</v>
-      </c>
-      <c r="R28">
-        <v>5</v>
-      </c>
-      <c r="S28">
-        <v>25</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>5.3600382499999952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>4.4638218879699707</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>15</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>4.6853985786437988</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29">
-        <v>30</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>5.3663812499999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>4.5848331451416016</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>15</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>4.7262082099914551</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30">
-        <v>30</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>5.3384619999999963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>4.7411484718322754</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <v>20</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>4.5525875091552734</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>40</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>4.955448999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4.6724867820739746</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>20</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>4.5216293334960938</v>
-      </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>40</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>4.82675375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>5.2175693511962891</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>25</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>4.5888890000000018</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>50</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>4.1185950000000027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>5.4219069480895996</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>25</v>
-      </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
-      <c r="P34">
-        <v>4.6556607500000027</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>50</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
-      <c r="U34">
-        <v>4.3028922500000029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" t="s">
-        <v>2</v>
-      </c>
-      <c r="R36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S36" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" t="s">
-        <v>7</v>
-      </c>
-      <c r="U36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C37">
-        <v>25</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>3.4691834999999998</v>
-      </c>
-      <c r="H37">
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>4.6556607500000027</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>25</v>
-      </c>
-      <c r="T37">
-        <v>2</v>
-      </c>
-      <c r="U37">
-        <v>3.4691834999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C38">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>3.537252500000001</v>
-      </c>
-      <c r="H38">
-        <v>25</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>4.5888890000000018</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>25</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>3.537252500000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C39">
-        <v>20</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>3.9812832499999971</v>
-      </c>
-      <c r="H39">
-        <v>20</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>4.5216293334960938</v>
-      </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
-      <c r="S39">
-        <v>20</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>5.2335084999999992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>3.9523434999999978</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>4.5525875091552734</v>
-      </c>
-      <c r="R40">
-        <v>10</v>
-      </c>
-      <c r="S40">
-        <v>20</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40">
-        <v>5.3097445000000008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>4.4195192500000005</v>
-      </c>
-      <c r="H41">
-        <v>15</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>4.7262082099914551</v>
-      </c>
-      <c r="R41">
-        <v>20</v>
-      </c>
-      <c r="S41">
-        <v>15</v>
-      </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>5.0726329999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>4.3345787499999986</v>
-      </c>
-      <c r="H42">
-        <v>15</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>4.6853985786437988</v>
-      </c>
-      <c r="R42">
-        <v>20</v>
-      </c>
-      <c r="S42">
-        <v>15</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42">
-        <v>5.1414162500000025</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C43">
-        <v>12.5</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>4.3733934999999988</v>
-      </c>
-      <c r="H43">
-        <v>12.5</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43">
-        <v>4.623291015625</v>
-      </c>
-      <c r="R43">
-        <v>25</v>
-      </c>
-      <c r="S43">
-        <v>12.5</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>5.3847152499999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C44">
-        <v>12.5</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>4.326720500000004</v>
-      </c>
-      <c r="H44">
-        <v>12.5</v>
-      </c>
-      <c r="I44">
-        <v>5</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>4.5858039855957031</v>
-      </c>
-      <c r="R44">
-        <v>25</v>
-      </c>
-      <c r="S44">
-        <v>12.5</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>4.9829374999999985</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>4.5509675000000058</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>6</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>4.6968145370483398</v>
-      </c>
-      <c r="R45">
-        <v>30</v>
-      </c>
-      <c r="S45">
-        <v>10</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>5.0621240000000007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>4.6565797499999988</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>6</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>4.7589845657348633</v>
-      </c>
-      <c r="R46">
-        <v>30</v>
-      </c>
-      <c r="S46">
-        <v>10</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>5.2398334999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>5.0416437499999986</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>8</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
-        <v>4.3441257476806641</v>
-      </c>
-      <c r="R47">
-        <v>40</v>
-      </c>
-      <c r="S47">
-        <v>5</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
-      <c r="U47">
-        <v>4.9880185000000026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>4.7829155000000014</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>4.4339785575866699</v>
-      </c>
-      <c r="R48">
-        <v>40</v>
-      </c>
-      <c r="S48">
-        <v>5</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <v>4.6647529999999975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>5.0109652499999982</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>10</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="R49">
-        <v>50</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
-      <c r="U49">
-        <v>4.2852847499999989</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>5.0234217499999971</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>10</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="R50">
-        <v>50</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50">
-        <v>4.2122205000000008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>4.3552507499999962</v>
-      </c>
-      <c r="H53">
-        <v>50</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53">
-        <v>4.3028922500000029</v>
-      </c>
-      <c r="M53">
-        <v>50</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>4.2122205000000008</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>4.3807605000000009</v>
-      </c>
-      <c r="H54">
-        <v>50</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>4.1185950000000027</v>
-      </c>
-      <c r="M54">
-        <v>50</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>2</v>
-      </c>
-      <c r="P54">
-        <v>4.2852847499999989</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C55">
-        <v>40</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>5.3903222500000005</v>
-      </c>
-      <c r="H55">
-        <v>40</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
-      </c>
-      <c r="K55">
-        <v>4.82675375</v>
-      </c>
-      <c r="M55">
-        <v>40</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>4.6647529999999975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C56">
-        <v>40</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>5.2092952500000003</v>
-      </c>
-      <c r="H56">
-        <v>40</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>4.955448999999998</v>
-      </c>
-      <c r="M56">
-        <v>40</v>
-      </c>
-      <c r="N56">
-        <v>5</v>
-      </c>
-      <c r="O56">
-        <v>2</v>
-      </c>
-      <c r="P56">
-        <v>4.9880185000000026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C57">
-        <v>30</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>5.7034554999999969</v>
-      </c>
-      <c r="H57">
-        <v>30</v>
-      </c>
-      <c r="I57">
-        <v>4</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>5.3384619999999963</v>
-      </c>
-      <c r="M57">
-        <v>30</v>
-      </c>
-      <c r="N57">
-        <v>10</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>5.2398334999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C58">
-        <v>30</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58">
-        <v>5.777797249999999</v>
-      </c>
-      <c r="H58">
-        <v>30</v>
-      </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>5.3663812499999999</v>
-      </c>
-      <c r="M58">
-        <v>30</v>
-      </c>
-      <c r="N58">
-        <v>10</v>
-      </c>
-      <c r="O58">
-        <v>2</v>
-      </c>
-      <c r="P58">
-        <v>5.0621240000000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C59">
-        <v>25</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>5.9620212500000029</v>
-      </c>
-      <c r="H59">
-        <v>25</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
-      </c>
-      <c r="K59">
-        <v>5.3600382499999952</v>
-      </c>
-      <c r="M59">
-        <v>25</v>
-      </c>
-      <c r="N59">
-        <v>12.5</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>4.9829374999999985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C60">
-        <v>25</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>6.1141392500000009</v>
-      </c>
-      <c r="H60">
-        <v>25</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>5.4623999999999988</v>
-      </c>
-      <c r="M60">
-        <v>25</v>
-      </c>
-      <c r="N60">
-        <v>12.5</v>
-      </c>
-      <c r="O60">
-        <v>2</v>
-      </c>
-      <c r="P60">
-        <v>5.3847152499999993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>6.1674840000000017</v>
-      </c>
-      <c r="H61">
-        <v>20</v>
-      </c>
-      <c r="I61">
-        <v>6</v>
-      </c>
-      <c r="J61">
-        <v>2</v>
-      </c>
-      <c r="K61">
-        <v>5.5882074999999993</v>
-      </c>
-      <c r="M61">
-        <v>20</v>
-      </c>
-      <c r="N61">
-        <v>15</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>5.1414162500000025</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C62">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62">
-        <v>6.1515897499999994</v>
-      </c>
-      <c r="H62">
-        <v>20</v>
-      </c>
-      <c r="I62">
-        <v>6</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>5.367931500000001</v>
-      </c>
-      <c r="M62">
-        <v>20</v>
-      </c>
-      <c r="N62">
-        <v>15</v>
-      </c>
-      <c r="O62">
-        <v>2</v>
-      </c>
-      <c r="P62">
-        <v>5.0726329999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>6.1737357499999987</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63">
-        <v>8</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63">
-        <v>5.5736370000000015</v>
-      </c>
-      <c r="M63">
-        <v>10</v>
-      </c>
-      <c r="N63">
-        <v>20</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>5.3097445000000008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C64">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>8</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>6.1861927499999965</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>8</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>5.5975067500000009</v>
-      </c>
-      <c r="M64">
-        <v>10</v>
-      </c>
-      <c r="N64">
-        <v>20</v>
-      </c>
-      <c r="O64">
-        <v>2</v>
-      </c>
-      <c r="P64">
-        <v>5.2335084999999992</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>5.2435672499999946</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>10</v>
-      </c>
-      <c r="J65">
-        <v>2</v>
-      </c>
-      <c r="K65">
-        <v>4.2067909240722656</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>25</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>3.537252500000001</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>5.1064792500000067</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>10</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>4.1642498970031738</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>25</v>
-      </c>
-      <c r="O66">
-        <v>2</v>
-      </c>
-      <c r="P66">
-        <v>3.4691834999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X21:AB34">
-    <sortCondition descending="1" ref="X21:X34"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9509,231 +7185,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C88DD18-3939-8446-A55A-161DA59B26EE}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5.0234217499999971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5.0109652499999982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>4.7829155000000014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5.0416437499999986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4.6565797499999988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4.5509675000000058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>12.5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4.326720500000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>12.5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4.3733934999999988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>4.3345787499999986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>4.4195192500000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3.9523434999999978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3.9812832499999971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3.537252500000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3.4691834999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DD189-6911-EA43-9C3E-2E9131A4839B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -9958,232 +7409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224ECC7-65C0-DB4D-89B5-B1FE443C42D0}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>4.1642498970031738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4.2067909240722656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>4.4339785575866699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4.3441257476806641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4.7589845657348633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4.6968145370483398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>12.5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4.5858039855957031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>12.5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4.623291015625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>4.6853985786437988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>4.7262082099914551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4.5525875091552734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4.5216293334960938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4.5888890000000018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>4.6556607500000027</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F3F82D-C8E9-3044-A07A-CC4C47819A1C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -10408,7 +7634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F570467-B21B-584D-A19B-317D681D8C31}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -10633,12 +7859,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E5834D-4D27-E944-8281-0E404CC9C073}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10856,4 +8082,2325 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020459-087A-44B8-AB3E-F8ED227C86A9}">
+  <dimension ref="A1:U66"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5.4219069480895996</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>5.0234217499999971</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>5.1064792500000067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>5.2175693511962891</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>5.0109652499999982</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>5.2435672499999946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>4.6724867820739746</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4.7829155000000014</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>6.1861927499999965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>4.7411484718322754</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>5.0416437499999986</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>6.1737357499999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>4.5848331451416016</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>4.6565797499999988</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>6.1515897499999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4.4638218879699707</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>4.5509675000000058</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>6.1674840000000017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4.4057497978210449</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>12.5</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4.326720500000004</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>25</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>6.1141392500000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>4.633507251739502</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>12.5</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>4.3733934999999988</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>25</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>5.9620212500000029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>4.5389604568481445</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>4.3345787499999986</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>5.777797249999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>4.4352307319641113</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>4.4195192500000005</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>5.7034554999999969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>4.3253769874572754</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>3.9523434999999978</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>5.2092952500000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>4.6080403327941895</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>3.9812832499999971</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>40</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>5.3903222500000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>3.537252500000001</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>50</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>4.3807605000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>3.4691834999999998</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>50</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>4.3552507499999962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>4.1642498970031738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>4.2067909240722656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4.6080403327941895</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>4.4339785575866699</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>5.5975067500000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4.3253769874572754</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>4.3441257476806641</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>5.5736370000000015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>4.4352307319641113</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>4.7589845657348633</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>5.367931500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4.5389604568481445</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>4.6968145370483398</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>20</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>5.5882074999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4.633507251739502</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>12.5</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>4.5858039855957031</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>5.4623999999999988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4.4057497978210449</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>12.5</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>4.623291015625</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>25</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>5.3600382499999952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>4.4638218879699707</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>4.6853985786437988</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>30</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>5.3663812499999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4.5848331451416016</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>15</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>4.7262082099914551</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>30</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>5.3384619999999963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4.7411484718322754</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>20</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>4.5525875091552734</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>40</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>4.955448999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4.6724867820739746</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>4.5216293334960938</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>40</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>4.82675375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>5.2175693511962891</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>4.5888890000000018</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>50</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>4.1185950000000027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>5.4219069480895996</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>4.6556607500000027</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>50</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>4.3028922500000029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>3.4691834999999998</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>4.6556607500000027</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>25</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>3.4691834999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3.537252500000001</v>
+      </c>
+      <c r="H38">
+        <v>25</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>4.5888890000000018</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>25</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>3.537252500000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3.9812832499999971</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>4.5216293334960938</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>20</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>5.2335084999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3.9523434999999978</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>4.5525875091552734</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>20</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>5.3097445000000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>4.4195192500000005</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>4.7262082099914551</v>
+      </c>
+      <c r="R41">
+        <v>20</v>
+      </c>
+      <c r="S41">
+        <v>15</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>5.0726329999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>4.3345787499999986</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>4.6853985786437988</v>
+      </c>
+      <c r="R42">
+        <v>20</v>
+      </c>
+      <c r="S42">
+        <v>15</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>5.1414162500000025</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>12.5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>4.3733934999999988</v>
+      </c>
+      <c r="H43">
+        <v>12.5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>4.623291015625</v>
+      </c>
+      <c r="R43">
+        <v>25</v>
+      </c>
+      <c r="S43">
+        <v>12.5</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>5.3847152499999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>12.5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>4.326720500000004</v>
+      </c>
+      <c r="H44">
+        <v>12.5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4.5858039855957031</v>
+      </c>
+      <c r="R44">
+        <v>25</v>
+      </c>
+      <c r="S44">
+        <v>12.5</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>4.9829374999999985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>4.5509675000000058</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>4.6968145370483398</v>
+      </c>
+      <c r="R45">
+        <v>30</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>5.0621240000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>4.6565797499999988</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>4.7589845657348633</v>
+      </c>
+      <c r="R46">
+        <v>30</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>5.2398334999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>5.0416437499999986</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>4.3441257476806641</v>
+      </c>
+      <c r="R47">
+        <v>40</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>4.9880185000000026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4.7829155000000014</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>4.4339785575866699</v>
+      </c>
+      <c r="R48">
+        <v>40</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>4.6647529999999975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>5.0109652499999982</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="R49">
+        <v>50</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <v>4.2852847499999989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5.0234217499999971</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="R50">
+        <v>50</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>4.2122205000000008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>4.3552507499999962</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>4.3028922500000029</v>
+      </c>
+      <c r="M53">
+        <v>50</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>4.2122205000000008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>4.3807605000000009</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>4.1185950000000027</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>4.2852847499999989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5.3903222500000005</v>
+      </c>
+      <c r="H55">
+        <v>40</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>4.82675375</v>
+      </c>
+      <c r="M55">
+        <v>40</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>4.6647529999999975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>5.2092952500000003</v>
+      </c>
+      <c r="H56">
+        <v>40</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>4.955448999999998</v>
+      </c>
+      <c r="M56">
+        <v>40</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>4.9880185000000026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>5.7034554999999969</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>5.3384619999999963</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>5.2398334999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>5.777797249999999</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>5.3663812499999999</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>5.0621240000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>5.9620212500000029</v>
+      </c>
+      <c r="H59">
+        <v>25</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>5.3600382499999952</v>
+      </c>
+      <c r="M59">
+        <v>25</v>
+      </c>
+      <c r="N59">
+        <v>12.5</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>4.9829374999999985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>6.1141392500000009</v>
+      </c>
+      <c r="H60">
+        <v>25</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>5.4623999999999988</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>12.5</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>5.3847152499999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>6.1674840000000017</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>5.5882074999999993</v>
+      </c>
+      <c r="M61">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>15</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>5.1414162500000025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>6.1515897499999994</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>5.367931500000001</v>
+      </c>
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>15</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>5.0726329999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>6.1737357499999987</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>5.5736370000000015</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+      <c r="N63">
+        <v>20</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>5.3097445000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>6.1861927499999965</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>5.5975067500000009</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>20</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>5.2335084999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>5.2435672499999946</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>4.2067909240722656</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>25</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>3.537252500000001</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>5.1064792500000067</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>4.1642498970031738</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>25</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>3.4691834999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X21:AB34">
+    <sortCondition descending="1" ref="X21:X34"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>